--- a/cost & bbm 2022 sd 2025 HP & Type.xlsx
+++ b/cost & bbm 2022 sd 2025 HP & Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC5994-1BAA-4F93-9548-340247B3787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9BB4D9-2302-461B-91D7-00085D065CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D17D3E4B-5855-4312-A802-3E8004D3B15C}"/>
   </bookViews>
@@ -1669,8 +1669,8 @@
   <dimension ref="A1:S247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1680,11 +1680,11 @@
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="16" customWidth="1"/>
     <col min="12" max="12" width="6" style="15" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" style="15" customWidth="1"/>

--- a/cost & bbm 2022 sd 2025 HP & Type.xlsx
+++ b/cost & bbm 2022 sd 2025 HP & Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9BB4D9-2302-461B-91D7-00085D065CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC81CB-3E2A-46B6-A880-A600B43D2DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D17D3E4B-5855-4312-A802-3E8004D3B15C}"/>
   </bookViews>
@@ -1666,11 +1666,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2144,7 +2145,7 @@
         <v>50580.44</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" s="10">
         <v>106</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>1421.39</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" s="10">
         <v>110</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>7534.54</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" s="10">
         <v>111</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>239.45</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" s="10">
         <v>119</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>524.52</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" hidden="1">
       <c r="A13" s="10">
         <v>21</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>533.86</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" s="10">
         <v>22</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" s="10">
         <v>42</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>4360.17</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" s="10">
         <v>232</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>967.17</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" hidden="1">
       <c r="A17" s="10">
         <v>34</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>914.45</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" hidden="1">
       <c r="A18" s="10">
         <v>218</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" s="10">
         <v>55</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" hidden="1">
       <c r="A20" s="10">
         <v>120</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>208.06</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" hidden="1">
       <c r="A21" s="10">
         <v>121</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>9840.02</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" hidden="1">
       <c r="A22" s="10">
         <v>35</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" hidden="1">
       <c r="A23" s="10">
         <v>122</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>5494.19</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" hidden="1">
       <c r="A24" s="10">
         <v>43</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>768.64</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" hidden="1">
       <c r="A25" s="10">
         <v>32</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" hidden="1">
       <c r="A26" s="10">
         <v>44</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>6947.12</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" hidden="1">
       <c r="A27" s="10">
         <v>11</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" s="10">
         <v>123</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>6664.86</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" hidden="1">
       <c r="A29" s="10">
         <v>112</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>544.24</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" hidden="1">
       <c r="A30" s="10">
         <v>219</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" s="10">
         <v>124</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>3889.16</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" s="10">
         <v>23</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" hidden="1">
       <c r="A34" s="10">
         <v>36</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>4058.71</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" hidden="1">
       <c r="A35" s="10">
         <v>199</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" hidden="1">
       <c r="A36" s="10">
         <v>212</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" s="10">
         <v>227</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" hidden="1">
       <c r="A38" s="10">
         <v>45</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>279.32</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" hidden="1">
       <c r="A39" s="10">
         <v>46</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>4914.28</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" s="10">
         <v>125</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>4054.68</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" s="10">
         <v>113</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>4409.6099999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" s="10">
         <v>152</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>3032.86</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" hidden="1">
       <c r="A43" s="10">
         <v>200</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" s="10">
         <v>107</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>25459.79</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" s="10">
         <v>198</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>1030.95</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" hidden="1">
       <c r="A46" s="10">
         <v>1</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" s="10">
         <v>24</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>5824.89</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" s="10">
         <v>57</v>
       </c>
@@ -4563,7 +4564,7 @@
         <v>1120.02</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" hidden="1">
       <c r="A50" s="10">
         <v>108</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>1716.26</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" s="10">
         <v>25</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" hidden="1">
       <c r="A52" s="10">
         <v>220</v>
       </c>
@@ -4740,7 +4741,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" s="10">
         <v>37</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>161.04</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" hidden="1">
       <c r="A54" s="10">
         <v>126</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>8621.02</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" s="10">
         <v>153</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>3460.54</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" hidden="1">
       <c r="A56" s="10">
         <v>127</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>6502.49</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" s="10">
         <v>229</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>13265</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" hidden="1">
       <c r="A58" s="10">
         <v>243</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" hidden="1">
       <c r="A59" s="10">
         <v>26</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" hidden="1">
       <c r="A60" s="10">
         <v>5</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" hidden="1">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>10311.280000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" hidden="1">
       <c r="A62" s="10">
         <v>38</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>4543.93</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" hidden="1">
       <c r="A63" s="10">
         <v>128</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" hidden="1">
       <c r="A64" s="10">
         <v>27</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" hidden="1">
       <c r="A65" s="10">
         <v>207</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" hidden="1">
       <c r="A66" s="10">
         <v>114</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>5983.96</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" s="10">
         <v>208</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>1622.27</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" hidden="1">
       <c r="A68" s="10">
         <v>59</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" hidden="1">
       <c r="A69" s="10">
         <v>39</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" hidden="1">
       <c r="A70" s="10">
         <v>20</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>153.49</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" hidden="1">
       <c r="A71" s="10">
         <v>234</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>1114.81</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" hidden="1">
       <c r="A72" s="10">
         <v>216</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" s="10">
         <v>2</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" hidden="1">
       <c r="A74" s="10">
         <v>221</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" hidden="1">
       <c r="A75" s="10">
         <v>231</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>10378</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" hidden="1">
       <c r="A76" s="10">
         <v>48</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>4598.4799999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" hidden="1">
       <c r="A77" s="10">
         <v>60</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>2000.25</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" hidden="1">
       <c r="A78" s="10">
         <v>104</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" hidden="1">
       <c r="A79" s="10">
         <v>201</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>26066</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" hidden="1">
       <c r="A80" s="10">
         <v>61</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>48748.24</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" hidden="1">
       <c r="A81" s="10">
         <v>235</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>36469</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" hidden="1">
       <c r="A82" s="10">
         <v>6</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" hidden="1">
       <c r="A83" s="10">
         <v>222</v>
       </c>
@@ -6569,7 +6570,7 @@
         <v>29805</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" hidden="1">
       <c r="A84" s="10">
         <v>3</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" hidden="1">
       <c r="A85" s="10">
         <v>129</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>30968.76</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" hidden="1">
       <c r="A86" s="10">
         <v>209</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" hidden="1">
       <c r="A87" s="10">
         <v>56</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" hidden="1">
       <c r="A88" s="10">
         <v>49</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>71353.86</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" hidden="1">
       <c r="A89" s="10">
         <v>230</v>
       </c>
@@ -6923,7 +6924,7 @@
         <v>43483.01</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" hidden="1">
       <c r="A90" s="10">
         <v>154</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>35674.910000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" hidden="1">
       <c r="A91" s="10">
         <v>213</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>19530</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" hidden="1">
       <c r="A92" s="10">
         <v>17</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>65268</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" hidden="1">
       <c r="A93" s="10">
         <v>115</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>53799.77</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" hidden="1">
       <c r="A94" s="10">
         <v>116</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>56153.5</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" hidden="1">
       <c r="A95" s="10">
         <v>105</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>21900</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" hidden="1">
       <c r="A96" s="10">
         <v>117</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>40767.56</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" hidden="1">
       <c r="A97" s="10">
         <v>62</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>42290.71</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" hidden="1">
       <c r="A98" s="10">
         <v>155</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>62980.17</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" hidden="1">
       <c r="A99" s="10">
         <v>50</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>75409.09</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" hidden="1">
       <c r="A100" s="10">
         <v>236</v>
       </c>
@@ -7572,7 +7573,7 @@
         <v>29456</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" hidden="1">
       <c r="A101" s="10">
         <v>223</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>22885</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" hidden="1">
       <c r="A102" s="10">
         <v>217</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>19782</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" hidden="1">
       <c r="A103" s="10">
         <v>40</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>53056.23</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" hidden="1">
       <c r="A104" s="10">
         <v>156</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>44232.32</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" hidden="1">
       <c r="A105" s="10">
         <v>130</v>
       </c>
@@ -7867,7 +7868,7 @@
         <v>55283.76</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" hidden="1">
       <c r="A106" s="10">
         <v>51</v>
       </c>
@@ -7926,7 +7927,7 @@
         <v>28014</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" hidden="1">
       <c r="A107" s="10">
         <v>52</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>65248.31</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" hidden="1">
       <c r="A108" s="10">
         <v>131</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>67487.13</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" hidden="1">
       <c r="A109" s="10">
         <v>12</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" hidden="1">
       <c r="A110" s="10">
         <v>244</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" hidden="1">
       <c r="A111" s="10">
         <v>13</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" hidden="1">
       <c r="A123" s="10">
         <v>64</v>
       </c>
@@ -8929,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" hidden="1">
       <c r="A124" s="10">
         <v>65</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" hidden="1">
       <c r="A125" s="10">
         <v>66</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" hidden="1">
       <c r="A126" s="10">
         <v>224</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" hidden="1">
       <c r="A127" s="10">
         <v>67</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" hidden="1">
       <c r="A128" s="10">
         <v>68</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" hidden="1">
       <c r="A129" s="10">
         <v>69</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" hidden="1">
       <c r="A130" s="10">
         <v>70</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" hidden="1">
       <c r="A131" s="10">
         <v>71</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" hidden="1">
       <c r="A132" s="10">
         <v>72</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" hidden="1">
       <c r="A133" s="10">
         <v>73</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" hidden="1">
       <c r="A134" s="10">
         <v>74</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" hidden="1">
       <c r="A135" s="10">
         <v>132</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>22380.07</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" hidden="1">
       <c r="A136" s="10">
         <v>75</v>
       </c>
@@ -9696,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" hidden="1">
       <c r="A137" s="10">
         <v>157</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>17592.93</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" hidden="1">
       <c r="A138" s="10">
         <v>76</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" hidden="1">
       <c r="A139" s="10">
         <v>77</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" hidden="1">
       <c r="A140" s="10">
         <v>78</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" hidden="1">
       <c r="A141" s="10">
         <v>79</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" hidden="1">
       <c r="A142" s="10">
         <v>80</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" hidden="1">
       <c r="A143" s="10">
         <v>133</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>28029.360000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" hidden="1">
       <c r="A144" s="10">
         <v>81</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" hidden="1">
       <c r="A145" s="10">
         <v>134</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>21698.07</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" hidden="1">
       <c r="A146" s="10">
         <v>82</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" hidden="1">
       <c r="A147" s="10">
         <v>237</v>
       </c>
@@ -10345,7 +10346,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" hidden="1">
       <c r="A148" s="10">
         <v>135</v>
       </c>
@@ -10404,7 +10405,7 @@
         <v>29460.33</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" hidden="1">
       <c r="A149" s="10">
         <v>136</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>21116.29</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" hidden="1">
       <c r="A150" s="10">
         <v>137</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>23254.18</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" hidden="1">
       <c r="A151" s="10">
         <v>83</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" hidden="1">
       <c r="A152" s="10">
         <v>138</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>25220.51</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" hidden="1">
       <c r="A153" s="10">
         <v>139</v>
       </c>
@@ -10699,7 +10700,7 @@
         <v>24269.01</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" hidden="1">
       <c r="A154" s="10">
         <v>140</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>22840.07</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" hidden="1">
       <c r="A155" s="10">
         <v>84</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" hidden="1">
       <c r="A156" s="10">
         <v>141</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>27354.86</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" hidden="1">
       <c r="A157" s="10">
         <v>142</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>24348.5</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" hidden="1">
       <c r="A158" s="10">
         <v>85</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" hidden="1">
       <c r="A159" s="10">
         <v>143</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>21559.5</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" hidden="1">
       <c r="A160" s="10">
         <v>86</v>
       </c>
@@ -11112,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" hidden="1">
       <c r="A161" s="10">
         <v>87</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" hidden="1">
       <c r="A162" s="10">
         <v>144</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>24883.66</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" hidden="1">
       <c r="A163" s="10">
         <v>88</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" hidden="1">
       <c r="A164" s="10">
         <v>89</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" hidden="1">
       <c r="A165" s="10">
         <v>145</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>23457.69</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" hidden="1">
       <c r="A166" s="10">
         <v>146</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>8679.1200000000008</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" hidden="1">
       <c r="A167" s="10">
         <v>158</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>10413.35</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" hidden="1">
       <c r="A168" s="10">
         <v>159</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>15105.21</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" hidden="1">
       <c r="A169" s="10">
         <v>160</v>
       </c>
@@ -11643,7 +11644,7 @@
         <v>7373.44</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" hidden="1">
       <c r="A170" s="10">
         <v>90</v>
       </c>
@@ -11702,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" hidden="1">
       <c r="A171" s="10">
         <v>161</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>13102.17</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" hidden="1">
       <c r="A172" s="10">
         <v>91</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" hidden="1">
       <c r="A173" s="10">
         <v>92</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" hidden="1">
       <c r="A174" s="10">
         <v>215</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" hidden="1">
       <c r="A175" s="10">
         <v>93</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" hidden="1">
       <c r="A176" s="10">
         <v>14</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" hidden="1">
       <c r="A177" s="10">
         <v>94</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" hidden="1">
       <c r="A178" s="10">
         <v>162</v>
       </c>
@@ -12174,7 +12175,7 @@
         <v>17867.61</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" hidden="1">
       <c r="A179" s="10">
         <v>163</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>20354.419999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" hidden="1">
       <c r="A180" s="10">
         <v>225</v>
       </c>
@@ -12292,7 +12293,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" hidden="1">
       <c r="A181" s="10">
         <v>164</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>21161.81</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" hidden="1">
       <c r="A182" s="10">
         <v>165</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>18764.73</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" hidden="1">
       <c r="A183" s="10">
         <v>95</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" hidden="1">
       <c r="A184" s="10">
         <v>166</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>21113.72</v>
       </c>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" hidden="1">
       <c r="A185" s="10">
         <v>167</v>
       </c>
@@ -12587,7 +12588,7 @@
         <v>19394.189999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" hidden="1">
       <c r="A186" s="10">
         <v>168</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>18676.830000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" hidden="1">
       <c r="A187" s="10">
         <v>169</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>19190.900000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" hidden="1">
       <c r="A188" s="10">
         <v>96</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" hidden="1">
       <c r="A189" s="10">
         <v>170</v>
       </c>
@@ -12823,7 +12824,7 @@
         <v>15926.21</v>
       </c>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" hidden="1">
       <c r="A190" s="10">
         <v>171</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>18678.04</v>
       </c>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" hidden="1">
       <c r="A191" s="10">
         <v>172</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>17269.560000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" hidden="1">
       <c r="A192" s="10">
         <v>173</v>
       </c>
@@ -13000,7 +13001,7 @@
         <v>17762.47</v>
       </c>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" hidden="1">
       <c r="A193" s="10">
         <v>174</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>18121.54</v>
       </c>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" hidden="1">
       <c r="A194" s="10">
         <v>175</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>16727.669999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" hidden="1">
       <c r="A195" s="10">
         <v>97</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" hidden="1">
       <c r="A196" s="10">
         <v>176</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>18228.23</v>
       </c>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" hidden="1">
       <c r="A197" s="10">
         <v>177</v>
       </c>
@@ -13295,7 +13296,7 @@
         <v>20024.95</v>
       </c>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" hidden="1">
       <c r="A198" s="10">
         <v>178</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>18821.18</v>
       </c>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" hidden="1">
       <c r="A199" s="10">
         <v>179</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>21414.65</v>
       </c>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" hidden="1">
       <c r="A200" s="10">
         <v>180</v>
       </c>
@@ -13472,7 +13473,7 @@
         <v>24479.919999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" hidden="1">
       <c r="A201" s="10">
         <v>98</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" hidden="1">
       <c r="A202" s="10">
         <v>181</v>
       </c>
@@ -13590,7 +13591,7 @@
         <v>19083.060000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" hidden="1">
       <c r="A203" s="10">
         <v>182</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>21616.62</v>
       </c>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" hidden="1">
       <c r="A204" s="10">
         <v>183</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>19450.060000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" hidden="1">
       <c r="A205" s="10">
         <v>184</v>
       </c>
@@ -13767,7 +13768,7 @@
         <v>14504.09</v>
       </c>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" hidden="1">
       <c r="A206" s="10">
         <v>185</v>
       </c>
@@ -13826,7 +13827,7 @@
         <v>20565.27</v>
       </c>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" hidden="1">
       <c r="A207" s="10">
         <v>99</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" hidden="1">
       <c r="A208" s="10">
         <v>186</v>
       </c>
@@ -13944,7 +13945,7 @@
         <v>20178.349999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" hidden="1">
       <c r="A209" s="10">
         <v>187</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v>22337.07</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" hidden="1">
       <c r="A210" s="10">
         <v>188</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>20642.689999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" hidden="1">
       <c r="A211" s="10">
         <v>8</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" hidden="1">
       <c r="A212" s="10">
         <v>100</v>
       </c>
@@ -14180,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" hidden="1">
       <c r="A213" s="10">
         <v>226</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>12725</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" hidden="1">
       <c r="A214" s="10">
         <v>189</v>
       </c>
@@ -14298,7 +14299,7 @@
         <v>15677.34</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" hidden="1">
       <c r="A215" s="10">
         <v>190</v>
       </c>
@@ -14357,7 +14358,7 @@
         <v>18921.32</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" hidden="1">
       <c r="A216" s="10">
         <v>147</v>
       </c>
@@ -14416,7 +14417,7 @@
         <v>26275.919999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:19" hidden="1">
       <c r="A217" s="10">
         <v>191</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>22517.31</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" hidden="1">
       <c r="A218" s="10">
         <v>148</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>19255.36</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" hidden="1">
       <c r="A219" s="10">
         <v>149</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>22348.15</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" hidden="1">
       <c r="A220" s="10">
         <v>101</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" hidden="1">
       <c r="A221" s="10">
         <v>102</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" hidden="1">
       <c r="A222" s="10">
         <v>103</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" hidden="1">
       <c r="A223" s="10">
         <v>192</v>
       </c>
@@ -14829,7 +14830,7 @@
         <v>18499.060000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" hidden="1">
       <c r="A224" s="10">
         <v>9</v>
       </c>
@@ -14888,7 +14889,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" hidden="1">
       <c r="A225" s="10">
         <v>10</v>
       </c>
@@ -14947,7 +14948,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" hidden="1">
       <c r="A226" s="10">
         <v>4</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>13678</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" hidden="1">
       <c r="A227" s="10">
         <v>15</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" hidden="1">
       <c r="A228" s="10">
         <v>210</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" hidden="1">
       <c r="A229" s="10">
         <v>245</v>
       </c>
@@ -15183,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" hidden="1">
       <c r="A230" s="10">
         <v>204</v>
       </c>
@@ -15242,7 +15243,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" hidden="1">
       <c r="A231" s="10">
         <v>246</v>
       </c>
@@ -15301,7 +15302,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" hidden="1">
       <c r="A232" s="10">
         <v>211</v>
       </c>
@@ -15360,7 +15361,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" hidden="1">
       <c r="A233" s="10">
         <v>238</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" hidden="1">
       <c r="A234" s="10">
         <v>16</v>
       </c>
@@ -15478,7 +15479,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" spans="1:19" hidden="1">
       <c r="A235" s="10">
         <v>28</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" hidden="1">
       <c r="A236" s="10">
         <v>29</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" hidden="1">
       <c r="A237" s="10">
         <v>239</v>
       </c>
@@ -15655,7 +15656,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" hidden="1">
       <c r="A238" s="10">
         <v>240</v>
       </c>
@@ -15714,7 +15715,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" hidden="1">
       <c r="A239" s="10">
         <v>247</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" hidden="1">
       <c r="A240" s="10">
         <v>19</v>
       </c>
@@ -15832,7 +15833,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" hidden="1">
       <c r="A241" s="10">
         <v>214</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" hidden="1">
       <c r="A242" s="10">
         <v>150</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>15899.56</v>
       </c>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" hidden="1">
       <c r="A243" s="10">
         <v>30</v>
       </c>
@@ -16009,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" hidden="1">
       <c r="A244" s="10">
         <v>241</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" hidden="1">
       <c r="A245" s="10">
         <v>205</v>
       </c>
@@ -16127,7 +16128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" hidden="1">
       <c r="A246" s="10">
         <v>151</v>
       </c>
@@ -16186,7 +16187,7 @@
         <v>16055.63</v>
       </c>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" hidden="1">
       <c r="A247" s="10">
         <v>206</v>
       </c>
@@ -16246,7 +16247,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S247" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}"/>
+  <autoFilter ref="A2:S247" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="CRANE"/>
+        <filter val="SIDE LOADER"/>
+        <filter val="TOP LOADER"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>

--- a/cost & bbm 2022 sd 2025 HP & Type.xlsx
+++ b/cost & bbm 2022 sd 2025 HP & Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAC81CB-3E2A-46B6-A880-A600B43D2DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7493E50-F8E8-436A-8FA2-5B55F8659848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D17D3E4B-5855-4312-A802-3E8004D3B15C}"/>
   </bookViews>
@@ -1666,12 +1666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2145,7 +2144,7 @@
         <v>50580.44</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1">
+    <row r="9" spans="1:19">
       <c r="A9" s="10">
         <v>106</v>
       </c>
@@ -2204,7 +2203,7 @@
         <v>1421.39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1">
+    <row r="10" spans="1:19">
       <c r="A10" s="10">
         <v>110</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>7534.54</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="10">
         <v>111</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>239.45</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="10">
         <v>119</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>524.52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1">
+    <row r="13" spans="1:19">
       <c r="A13" s="10">
         <v>21</v>
       </c>
@@ -2440,7 +2439,7 @@
         <v>533.86</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:19">
       <c r="A14" s="10">
         <v>22</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1">
+    <row r="15" spans="1:19">
       <c r="A15" s="10">
         <v>42</v>
       </c>
@@ -2558,7 +2557,7 @@
         <v>4360.17</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1">
+    <row r="16" spans="1:19">
       <c r="A16" s="10">
         <v>232</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>967.17</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1">
+    <row r="17" spans="1:19">
       <c r="A17" s="10">
         <v>34</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>914.45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19">
       <c r="A18" s="10">
         <v>218</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19">
       <c r="A19" s="10">
         <v>55</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1">
+    <row r="20" spans="1:19">
       <c r="A20" s="10">
         <v>120</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>208.06</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:19">
       <c r="A21" s="10">
         <v>121</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>9840.02</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:19">
       <c r="A22" s="10">
         <v>35</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19">
       <c r="A23" s="10">
         <v>122</v>
       </c>
@@ -3030,7 +3029,7 @@
         <v>5494.19</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1">
+    <row r="24" spans="1:19">
       <c r="A24" s="10">
         <v>43</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>768.64</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1">
+    <row r="25" spans="1:19">
       <c r="A25" s="10">
         <v>32</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1">
+    <row r="26" spans="1:19">
       <c r="A26" s="10">
         <v>44</v>
       </c>
@@ -3207,7 +3206,7 @@
         <v>6947.12</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1">
+    <row r="27" spans="1:19">
       <c r="A27" s="10">
         <v>11</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1">
+    <row r="28" spans="1:19">
       <c r="A28" s="10">
         <v>123</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>6664.86</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1">
+    <row r="29" spans="1:19">
       <c r="A29" s="10">
         <v>112</v>
       </c>
@@ -3384,7 +3383,7 @@
         <v>544.24</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1">
+    <row r="30" spans="1:19">
       <c r="A30" s="10">
         <v>219</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:19">
       <c r="A31" s="10">
         <v>124</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>3889.16</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1">
+    <row r="32" spans="1:19">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19">
       <c r="A33" s="10">
         <v>23</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19">
       <c r="A34" s="10">
         <v>36</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>4058.71</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1">
+    <row r="35" spans="1:19">
       <c r="A35" s="10">
         <v>199</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1">
+    <row r="36" spans="1:19">
       <c r="A36" s="10">
         <v>212</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1">
+    <row r="37" spans="1:19">
       <c r="A37" s="10">
         <v>227</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1">
+    <row r="38" spans="1:19">
       <c r="A38" s="10">
         <v>45</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>279.32</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19">
       <c r="A39" s="10">
         <v>46</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>4914.28</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19">
       <c r="A40" s="10">
         <v>125</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>4054.68</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:19">
       <c r="A41" s="10">
         <v>113</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>4409.6099999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:19">
       <c r="A42" s="10">
         <v>152</v>
       </c>
@@ -4151,7 +4150,7 @@
         <v>3032.86</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:19">
       <c r="A43" s="10">
         <v>200</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19">
       <c r="A44" s="10">
         <v>107</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>25459.79</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:19">
       <c r="A45" s="10">
         <v>198</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>1030.95</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:19">
       <c r="A46" s="10">
         <v>1</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19">
       <c r="A47" s="10">
         <v>24</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>5824.89</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:19">
       <c r="A49" s="10">
         <v>57</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>1120.02</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1">
+    <row r="50" spans="1:19">
       <c r="A50" s="10">
         <v>108</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>1716.26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:19">
       <c r="A51" s="10">
         <v>25</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1">
+    <row r="52" spans="1:19">
       <c r="A52" s="10">
         <v>220</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1">
+    <row r="53" spans="1:19">
       <c r="A53" s="10">
         <v>37</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>161.04</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1">
+    <row r="54" spans="1:19">
       <c r="A54" s="10">
         <v>126</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>8621.02</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1">
+    <row r="55" spans="1:19">
       <c r="A55" s="10">
         <v>153</v>
       </c>
@@ -4918,7 +4917,7 @@
         <v>3460.54</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1">
+    <row r="56" spans="1:19">
       <c r="A56" s="10">
         <v>127</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>6502.49</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:19">
       <c r="A57" s="10">
         <v>229</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>13265</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1">
+    <row r="58" spans="1:19">
       <c r="A58" s="10">
         <v>243</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1">
+    <row r="59" spans="1:19">
       <c r="A59" s="10">
         <v>26</v>
       </c>
@@ -5154,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1">
+    <row r="60" spans="1:19">
       <c r="A60" s="10">
         <v>5</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1">
+    <row r="61" spans="1:19">
       <c r="A61" s="10">
         <v>58</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>10311.280000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:19">
       <c r="A62" s="10">
         <v>38</v>
       </c>
@@ -5331,7 +5330,7 @@
         <v>4543.93</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1">
+    <row r="63" spans="1:19">
       <c r="A63" s="10">
         <v>128</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:19">
       <c r="A64" s="10">
         <v>27</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1">
+    <row r="65" spans="1:19">
       <c r="A65" s="10">
         <v>207</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:19">
       <c r="A66" s="10">
         <v>114</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>5983.96</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:19">
       <c r="A67" s="10">
         <v>208</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>1622.27</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1">
+    <row r="68" spans="1:19">
       <c r="A68" s="10">
         <v>59</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1">
+    <row r="69" spans="1:19">
       <c r="A69" s="10">
         <v>39</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19">
       <c r="A70" s="10">
         <v>20</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>153.49</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:19">
       <c r="A71" s="10">
         <v>234</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>1114.81</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:19">
       <c r="A72" s="10">
         <v>216</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:19">
       <c r="A73" s="10">
         <v>2</v>
       </c>
@@ -5980,7 +5979,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1">
+    <row r="74" spans="1:19">
       <c r="A74" s="10">
         <v>221</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1">
+    <row r="75" spans="1:19">
       <c r="A75" s="10">
         <v>231</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>10378</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:19">
       <c r="A76" s="10">
         <v>48</v>
       </c>
@@ -6157,7 +6156,7 @@
         <v>4598.4799999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1">
+    <row r="77" spans="1:19">
       <c r="A77" s="10">
         <v>60</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>2000.25</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:19">
       <c r="A78" s="10">
         <v>104</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:19">
       <c r="A79" s="10">
         <v>201</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>26066</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1">
+    <row r="80" spans="1:19">
       <c r="A80" s="10">
         <v>61</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>48748.24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1">
+    <row r="81" spans="1:19">
       <c r="A81" s="10">
         <v>235</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>36469</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19">
       <c r="A82" s="10">
         <v>6</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:19">
       <c r="A83" s="10">
         <v>222</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>29805</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:19">
       <c r="A84" s="10">
         <v>3</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:19">
       <c r="A85" s="10">
         <v>129</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>30968.76</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1">
+    <row r="86" spans="1:19">
       <c r="A86" s="10">
         <v>209</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:19">
       <c r="A87" s="10">
         <v>56</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>22900</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:19">
       <c r="A88" s="10">
         <v>49</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>71353.86</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1">
+    <row r="89" spans="1:19">
       <c r="A89" s="10">
         <v>230</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>43483.01</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1">
+    <row r="90" spans="1:19">
       <c r="A90" s="10">
         <v>154</v>
       </c>
@@ -6983,7 +6982,7 @@
         <v>35674.910000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1">
+    <row r="91" spans="1:19">
       <c r="A91" s="10">
         <v>213</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>19530</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1">
+    <row r="92" spans="1:19">
       <c r="A92" s="10">
         <v>17</v>
       </c>
@@ -7101,7 +7100,7 @@
         <v>65268</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1">
+    <row r="93" spans="1:19">
       <c r="A93" s="10">
         <v>115</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>53799.77</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1">
+    <row r="94" spans="1:19">
       <c r="A94" s="10">
         <v>116</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>56153.5</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1">
+    <row r="95" spans="1:19">
       <c r="A95" s="10">
         <v>105</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>21900</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1">
+    <row r="96" spans="1:19">
       <c r="A96" s="10">
         <v>117</v>
       </c>
@@ -7337,7 +7336,7 @@
         <v>40767.56</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:19">
       <c r="A97" s="10">
         <v>62</v>
       </c>
@@ -7396,7 +7395,7 @@
         <v>42290.71</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1">
+    <row r="98" spans="1:19">
       <c r="A98" s="10">
         <v>155</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>62980.17</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1">
+    <row r="99" spans="1:19">
       <c r="A99" s="10">
         <v>50</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>75409.09</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:19">
       <c r="A100" s="10">
         <v>236</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>29456</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1">
+    <row r="101" spans="1:19">
       <c r="A101" s="10">
         <v>223</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>22885</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:19">
       <c r="A102" s="10">
         <v>217</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>19782</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:19">
       <c r="A103" s="10">
         <v>40</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>53056.23</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:19">
       <c r="A104" s="10">
         <v>156</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>44232.32</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:19">
       <c r="A105" s="10">
         <v>130</v>
       </c>
@@ -7868,7 +7867,7 @@
         <v>55283.76</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:19">
       <c r="A106" s="10">
         <v>51</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>28014</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:19">
       <c r="A107" s="10">
         <v>52</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>65248.31</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:19">
       <c r="A108" s="10">
         <v>131</v>
       </c>
@@ -8045,7 +8044,7 @@
         <v>67487.13</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1">
+    <row r="109" spans="1:19">
       <c r="A109" s="10">
         <v>12</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1">
+    <row r="110" spans="1:19">
       <c r="A110" s="10">
         <v>244</v>
       </c>
@@ -8163,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:19">
       <c r="A111" s="10">
         <v>13</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1">
+    <row r="123" spans="1:19">
       <c r="A123" s="10">
         <v>64</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1">
+    <row r="124" spans="1:19">
       <c r="A124" s="10">
         <v>65</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1">
+    <row r="125" spans="1:19">
       <c r="A125" s="10">
         <v>66</v>
       </c>
@@ -9048,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1">
+    <row r="126" spans="1:19">
       <c r="A126" s="10">
         <v>224</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1">
+    <row r="127" spans="1:19">
       <c r="A127" s="10">
         <v>67</v>
       </c>
@@ -9166,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1">
+    <row r="128" spans="1:19">
       <c r="A128" s="10">
         <v>68</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1">
+    <row r="129" spans="1:19">
       <c r="A129" s="10">
         <v>69</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1">
+    <row r="130" spans="1:19">
       <c r="A130" s="10">
         <v>70</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1">
+    <row r="131" spans="1:19">
       <c r="A131" s="10">
         <v>71</v>
       </c>
@@ -9402,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1">
+    <row r="132" spans="1:19">
       <c r="A132" s="10">
         <v>72</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1">
+    <row r="133" spans="1:19">
       <c r="A133" s="10">
         <v>73</v>
       </c>
@@ -9520,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1">
+    <row r="134" spans="1:19">
       <c r="A134" s="10">
         <v>74</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1">
+    <row r="135" spans="1:19">
       <c r="A135" s="10">
         <v>132</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>22380.07</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1">
+    <row r="136" spans="1:19">
       <c r="A136" s="10">
         <v>75</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1">
+    <row r="137" spans="1:19">
       <c r="A137" s="10">
         <v>157</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>17592.93</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1">
+    <row r="138" spans="1:19">
       <c r="A138" s="10">
         <v>76</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1">
+    <row r="139" spans="1:19">
       <c r="A139" s="10">
         <v>77</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1">
+    <row r="140" spans="1:19">
       <c r="A140" s="10">
         <v>78</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1">
+    <row r="141" spans="1:19">
       <c r="A141" s="10">
         <v>79</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1">
+    <row r="142" spans="1:19">
       <c r="A142" s="10">
         <v>80</v>
       </c>
@@ -10051,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1">
+    <row r="143" spans="1:19">
       <c r="A143" s="10">
         <v>133</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>28029.360000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1">
+    <row r="144" spans="1:19">
       <c r="A144" s="10">
         <v>81</v>
       </c>
@@ -10169,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1">
+    <row r="145" spans="1:19">
       <c r="A145" s="10">
         <v>134</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>21698.07</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1">
+    <row r="146" spans="1:19">
       <c r="A146" s="10">
         <v>82</v>
       </c>
@@ -10287,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1">
+    <row r="147" spans="1:19">
       <c r="A147" s="10">
         <v>237</v>
       </c>
@@ -10346,7 +10345,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1">
+    <row r="148" spans="1:19">
       <c r="A148" s="10">
         <v>135</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>29460.33</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1">
+    <row r="149" spans="1:19">
       <c r="A149" s="10">
         <v>136</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>21116.29</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1">
+    <row r="150" spans="1:19">
       <c r="A150" s="10">
         <v>137</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>23254.18</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1">
+    <row r="151" spans="1:19">
       <c r="A151" s="10">
         <v>83</v>
       </c>
@@ -10582,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1">
+    <row r="152" spans="1:19">
       <c r="A152" s="10">
         <v>138</v>
       </c>
@@ -10641,7 +10640,7 @@
         <v>25220.51</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1">
+    <row r="153" spans="1:19">
       <c r="A153" s="10">
         <v>139</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>24269.01</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1">
+    <row r="154" spans="1:19">
       <c r="A154" s="10">
         <v>140</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>22840.07</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1">
+    <row r="155" spans="1:19">
       <c r="A155" s="10">
         <v>84</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1">
+    <row r="156" spans="1:19">
       <c r="A156" s="10">
         <v>141</v>
       </c>
@@ -10877,7 +10876,7 @@
         <v>27354.86</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1">
+    <row r="157" spans="1:19">
       <c r="A157" s="10">
         <v>142</v>
       </c>
@@ -10936,7 +10935,7 @@
         <v>24348.5</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1">
+    <row r="158" spans="1:19">
       <c r="A158" s="10">
         <v>85</v>
       </c>
@@ -10995,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1">
+    <row r="159" spans="1:19">
       <c r="A159" s="10">
         <v>143</v>
       </c>
@@ -11054,7 +11053,7 @@
         <v>21559.5</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1">
+    <row r="160" spans="1:19">
       <c r="A160" s="10">
         <v>86</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1">
+    <row r="161" spans="1:19">
       <c r="A161" s="10">
         <v>87</v>
       </c>
@@ -11172,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1">
+    <row r="162" spans="1:19">
       <c r="A162" s="10">
         <v>144</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>24883.66</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1">
+    <row r="163" spans="1:19">
       <c r="A163" s="10">
         <v>88</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1">
+    <row r="164" spans="1:19">
       <c r="A164" s="10">
         <v>89</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1">
+    <row r="165" spans="1:19">
       <c r="A165" s="10">
         <v>145</v>
       </c>
@@ -11408,7 +11407,7 @@
         <v>23457.69</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1">
+    <row r="166" spans="1:19">
       <c r="A166" s="10">
         <v>146</v>
       </c>
@@ -11467,7 +11466,7 @@
         <v>8679.1200000000008</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1">
+    <row r="167" spans="1:19">
       <c r="A167" s="10">
         <v>158</v>
       </c>
@@ -11526,7 +11525,7 @@
         <v>10413.35</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1">
+    <row r="168" spans="1:19">
       <c r="A168" s="10">
         <v>159</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>15105.21</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1">
+    <row r="169" spans="1:19">
       <c r="A169" s="10">
         <v>160</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>7373.44</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1">
+    <row r="170" spans="1:19">
       <c r="A170" s="10">
         <v>90</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1">
+    <row r="171" spans="1:19">
       <c r="A171" s="10">
         <v>161</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>13102.17</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1">
+    <row r="172" spans="1:19">
       <c r="A172" s="10">
         <v>91</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1">
+    <row r="173" spans="1:19">
       <c r="A173" s="10">
         <v>92</v>
       </c>
@@ -11880,7 +11879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1">
+    <row r="174" spans="1:19">
       <c r="A174" s="10">
         <v>215</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1">
+    <row r="175" spans="1:19">
       <c r="A175" s="10">
         <v>93</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1">
+    <row r="176" spans="1:19">
       <c r="A176" s="10">
         <v>14</v>
       </c>
@@ -12057,7 +12056,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1">
+    <row r="177" spans="1:19">
       <c r="A177" s="10">
         <v>94</v>
       </c>
@@ -12116,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1">
+    <row r="178" spans="1:19">
       <c r="A178" s="10">
         <v>162</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>17867.61</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1">
+    <row r="179" spans="1:19">
       <c r="A179" s="10">
         <v>163</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>20354.419999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1">
+    <row r="180" spans="1:19">
       <c r="A180" s="10">
         <v>225</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1">
+    <row r="181" spans="1:19">
       <c r="A181" s="10">
         <v>164</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>21161.81</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1">
+    <row r="182" spans="1:19">
       <c r="A182" s="10">
         <v>165</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>18764.73</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1">
+    <row r="183" spans="1:19">
       <c r="A183" s="10">
         <v>95</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1">
+    <row r="184" spans="1:19">
       <c r="A184" s="10">
         <v>166</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>21113.72</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1">
+    <row r="185" spans="1:19">
       <c r="A185" s="10">
         <v>167</v>
       </c>
@@ -12588,7 +12587,7 @@
         <v>19394.189999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1">
+    <row r="186" spans="1:19">
       <c r="A186" s="10">
         <v>168</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>18676.830000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1">
+    <row r="187" spans="1:19">
       <c r="A187" s="10">
         <v>169</v>
       </c>
@@ -12706,7 +12705,7 @@
         <v>19190.900000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1">
+    <row r="188" spans="1:19">
       <c r="A188" s="10">
         <v>96</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1">
+    <row r="189" spans="1:19">
       <c r="A189" s="10">
         <v>170</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>15926.21</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1">
+    <row r="190" spans="1:19">
       <c r="A190" s="10">
         <v>171</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>18678.04</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1">
+    <row r="191" spans="1:19">
       <c r="A191" s="10">
         <v>172</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>17269.560000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1">
+    <row r="192" spans="1:19">
       <c r="A192" s="10">
         <v>173</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>17762.47</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1">
+    <row r="193" spans="1:19">
       <c r="A193" s="10">
         <v>174</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>18121.54</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1">
+    <row r="194" spans="1:19">
       <c r="A194" s="10">
         <v>175</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>16727.669999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1">
+    <row r="195" spans="1:19">
       <c r="A195" s="10">
         <v>97</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1">
+    <row r="196" spans="1:19">
       <c r="A196" s="10">
         <v>176</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>18228.23</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1">
+    <row r="197" spans="1:19">
       <c r="A197" s="10">
         <v>177</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>20024.95</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1">
+    <row r="198" spans="1:19">
       <c r="A198" s="10">
         <v>178</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>18821.18</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1">
+    <row r="199" spans="1:19">
       <c r="A199" s="10">
         <v>179</v>
       </c>
@@ -13414,7 +13413,7 @@
         <v>21414.65</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1">
+    <row r="200" spans="1:19">
       <c r="A200" s="10">
         <v>180</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>24479.919999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1">
+    <row r="201" spans="1:19">
       <c r="A201" s="10">
         <v>98</v>
       </c>
@@ -13532,7 +13531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1">
+    <row r="202" spans="1:19">
       <c r="A202" s="10">
         <v>181</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>19083.060000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1">
+    <row r="203" spans="1:19">
       <c r="A203" s="10">
         <v>182</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>21616.62</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1">
+    <row r="204" spans="1:19">
       <c r="A204" s="10">
         <v>183</v>
       </c>
@@ -13709,7 +13708,7 @@
         <v>19450.060000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1">
+    <row r="205" spans="1:19">
       <c r="A205" s="10">
         <v>184</v>
       </c>
@@ -13768,7 +13767,7 @@
         <v>14504.09</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1">
+    <row r="206" spans="1:19">
       <c r="A206" s="10">
         <v>185</v>
       </c>
@@ -13827,7 +13826,7 @@
         <v>20565.27</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1">
+    <row r="207" spans="1:19">
       <c r="A207" s="10">
         <v>99</v>
       </c>
@@ -13886,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1">
+    <row r="208" spans="1:19">
       <c r="A208" s="10">
         <v>186</v>
       </c>
@@ -13945,7 +13944,7 @@
         <v>20178.349999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1">
+    <row r="209" spans="1:19">
       <c r="A209" s="10">
         <v>187</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v>22337.07</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1">
+    <row r="210" spans="1:19">
       <c r="A210" s="10">
         <v>188</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>20642.689999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1">
+    <row r="211" spans="1:19">
       <c r="A211" s="10">
         <v>8</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1">
+    <row r="212" spans="1:19">
       <c r="A212" s="10">
         <v>100</v>
       </c>
@@ -14181,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1">
+    <row r="213" spans="1:19">
       <c r="A213" s="10">
         <v>226</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>12725</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1">
+    <row r="214" spans="1:19">
       <c r="A214" s="10">
         <v>189</v>
       </c>
@@ -14299,7 +14298,7 @@
         <v>15677.34</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1">
+    <row r="215" spans="1:19">
       <c r="A215" s="10">
         <v>190</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>18921.32</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1">
+    <row r="216" spans="1:19">
       <c r="A216" s="10">
         <v>147</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>26275.919999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1">
+    <row r="217" spans="1:19">
       <c r="A217" s="10">
         <v>191</v>
       </c>
@@ -14476,7 +14475,7 @@
         <v>22517.31</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1">
+    <row r="218" spans="1:19">
       <c r="A218" s="10">
         <v>148</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>19255.36</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1">
+    <row r="219" spans="1:19">
       <c r="A219" s="10">
         <v>149</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>22348.15</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1">
+    <row r="220" spans="1:19">
       <c r="A220" s="10">
         <v>101</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1">
+    <row r="221" spans="1:19">
       <c r="A221" s="10">
         <v>102</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1">
+    <row r="222" spans="1:19">
       <c r="A222" s="10">
         <v>103</v>
       </c>
@@ -14771,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1">
+    <row r="223" spans="1:19">
       <c r="A223" s="10">
         <v>192</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>18499.060000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1">
+    <row r="224" spans="1:19">
       <c r="A224" s="10">
         <v>9</v>
       </c>
@@ -14889,7 +14888,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1">
+    <row r="225" spans="1:19">
       <c r="A225" s="10">
         <v>10</v>
       </c>
@@ -14948,7 +14947,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1">
+    <row r="226" spans="1:19">
       <c r="A226" s="10">
         <v>4</v>
       </c>
@@ -15007,7 +15006,7 @@
         <v>13678</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1">
+    <row r="227" spans="1:19">
       <c r="A227" s="10">
         <v>15</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1">
+    <row r="228" spans="1:19">
       <c r="A228" s="10">
         <v>210</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1">
+    <row r="229" spans="1:19">
       <c r="A229" s="10">
         <v>245</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1">
+    <row r="230" spans="1:19">
       <c r="A230" s="10">
         <v>204</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1">
+    <row r="231" spans="1:19">
       <c r="A231" s="10">
         <v>246</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1">
+    <row r="232" spans="1:19">
       <c r="A232" s="10">
         <v>211</v>
       </c>
@@ -15361,7 +15360,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1">
+    <row r="233" spans="1:19">
       <c r="A233" s="10">
         <v>238</v>
       </c>
@@ -15420,7 +15419,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1">
+    <row r="234" spans="1:19">
       <c r="A234" s="10">
         <v>16</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1">
+    <row r="235" spans="1:19">
       <c r="A235" s="10">
         <v>28</v>
       </c>
@@ -15538,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1">
+    <row r="236" spans="1:19">
       <c r="A236" s="10">
         <v>29</v>
       </c>
@@ -15597,7 +15596,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1">
+    <row r="237" spans="1:19">
       <c r="A237" s="10">
         <v>239</v>
       </c>
@@ -15656,7 +15655,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1">
+    <row r="238" spans="1:19">
       <c r="A238" s="10">
         <v>240</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1">
+    <row r="239" spans="1:19">
       <c r="A239" s="10">
         <v>247</v>
       </c>
@@ -15774,7 +15773,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1">
+    <row r="240" spans="1:19">
       <c r="A240" s="10">
         <v>19</v>
       </c>
@@ -15833,7 +15832,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1">
+    <row r="241" spans="1:19">
       <c r="A241" s="10">
         <v>214</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1">
+    <row r="242" spans="1:19">
       <c r="A242" s="10">
         <v>150</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>15899.56</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1">
+    <row r="243" spans="1:19">
       <c r="A243" s="10">
         <v>30</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1">
+    <row r="244" spans="1:19">
       <c r="A244" s="10">
         <v>241</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1">
+    <row r="245" spans="1:19">
       <c r="A245" s="10">
         <v>205</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1">
+    <row r="246" spans="1:19">
       <c r="A246" s="10">
         <v>151</v>
       </c>
@@ -16187,7 +16186,7 @@
         <v>16055.63</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1">
+    <row r="247" spans="1:19">
       <c r="A247" s="10">
         <v>206</v>
       </c>
@@ -16247,15 +16246,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S247" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="CRANE"/>
-        <filter val="SIDE LOADER"/>
-        <filter val="TOP LOADER"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:S247" xr:uid="{659353CD-845E-4E59-8F9D-7DEC6B6247F4}"/>
   <mergeCells count="4">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
